--- a/plugins/db-wakamiti-plugin/src/test/resources/data2.xlsx
+++ b/plugins/db-wakamiti-plugin/src/test/resources/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\iti\wakamiti\repo\plugins\db-wakamiti-plugin\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgalbis\Proyectos\temp\plugins\db-wakamiti-plugin\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FCEF35-445B-4E45-92A9-3CBA438F807E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF33185-876B-40B5-8E5D-434B6203BC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30255" yWindow="2880" windowWidth="21630" windowHeight="11250" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>cityid</t>
+  </si>
+  <si>
+    <t>creation</t>
+  </si>
+  <si>
+    <t>2024-07-22 12:34:56</t>
   </si>
 </sst>
 </file>
@@ -110,12 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -442,10 +449,11 @@
     <col min="2" max="2" width="12.33203125"/>
     <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" style="1"/>
-    <col min="5" max="1024" width="8.5546875"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -458,8 +466,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -471,6 +482,9 @@
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/plugins/db-wakamiti-plugin/src/test/resources/data2.xlsx
+++ b/plugins/db-wakamiti-plugin/src/test/resources/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgalbis\Proyectos\temp\plugins\db-wakamiti-plugin\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF33185-876B-40B5-8E5D-434B6203BC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB11A656-C470-4735-8982-C53756187C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="2880" windowWidth="21630" windowHeight="11250" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="client" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>2024-07-22 12:34:56</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -477,8 +480,8 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>

--- a/plugins/db-wakamiti-plugin/src/test/resources/data2.xlsx
+++ b/plugins/db-wakamiti-plugin/src/test/resources/data2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgalbis\Proyectos\temp\plugins\db-wakamiti-plugin\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB11A656-C470-4735-8982-C53756187C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E3EE8A-199D-4345-9BE0-736026C74268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>2024-07-22 12:34:56</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
 </sst>
 </file>
